--- a/Outputs/PtX_demand_SI.xlsx
+++ b/Outputs/PtX_demand_SI.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0001741233353551002</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2.492917080507675e-11</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.216560135951444e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0001741233353551002</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>2.492917080507675e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.216560135951444e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,18 +583,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0002387215930826525</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.670934892225633e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.177742858439336e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,24 +608,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0002387215930826525</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.670934892225633e-05</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>1.177742858439336e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,17 +628,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.003076450763477843</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.343667119656581e-06</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.001980603565556</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.721874768721148e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0009813852249140999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -646,28 +656,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.003076450763477843</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6.343667119656581e-06</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.001146085501813317</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.001980603565556</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.721874768721148e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0009813852249140999</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -676,7 +678,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.001146085501813317</v>
+        <v>0.0001710761505851674</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -688,7 +690,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -697,19 +699,31 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0001710761505851674</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.001555883245481137</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003297283447755199</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.343667119656581e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.492917080507675e-11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.002044546595499908</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.721874768721148e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0009813852249140999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -718,17 +732,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0008407390440067625</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>2.086846941013904e-09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7.967624283432319e-05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -737,23 +757,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0008407390440067625</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>2.086846941013904e-09</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.967624283432319e-05</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -772,7 +786,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -781,17 +795,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3.009997692457285e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2.634244282946768e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -799,14 +817,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0009450240860476342</v>
+      </c>
       <c r="F16" t="n">
-        <v>3.009997692457285e-10</v>
+        <v>5.919770424781624e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.634244282946768e-11</v>
+        <v>1.816853598663156e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -814,7 +834,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -822,24 +842,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0009450240860476342</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5.919770424781624e-05</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1.816853598663156e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -848,17 +862,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.001289817512211268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.034122395044084e-05</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0013345459759956</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001181049999963</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0011103608962393</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -866,28 +890,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.001289817512211268</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.034122395044084e-05</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.001033086309782776</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0013345459759956</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0001181049999963</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0011103608962393</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -896,7 +912,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.001033086309782776</v>
+        <v>0.0006637443704830346</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -908,7 +924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -917,19 +933,31 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0006637443704830346</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.002641854766313445</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.002189754561465616</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.034122395044084e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.086846941013904e-09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.001432390781158998</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001181049999963</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0011103608962393</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -938,17 +966,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.001164232960626631</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>3.537037472848137e-09</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001279005782339543</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -957,23 +991,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.001164232960626631</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>3.537037472848137e-09</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0001279005782339543</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -992,7 +1020,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1001,17 +1029,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>2.227370036129704e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>7.98862568146151e-10</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1019,14 +1051,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.002485100133043488</v>
+      </c>
       <c r="F26" t="n">
-        <v>2.227370036129704e-09</v>
+        <v>9.349840352134126e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>7.98862568146151e-10</v>
+        <v>5.066201414880919e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1034,7 +1068,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1042,24 +1076,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.002485100133043488</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>9.349840352134126e-06</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>7.203956199715926e-12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.808113841955441e-13</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>5.066201414880919e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>2.124473067637537e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.088805598649355e-13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.597388414361179e-11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1069,26 +1107,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>7.203956199715926e-12</v>
+        <v>0.0001165720561071835</v>
       </c>
       <c r="G28" t="n">
-        <v>3.808113841955441e-13</v>
+        <v>1.847795157599896e-05</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>2.124473067637537e-11</v>
+        <v>0.0003461973294988</v>
       </c>
       <c r="J28" t="n">
-        <v>8.088805598649355e-13</v>
+        <v>0.0001519017325245</v>
       </c>
       <c r="K28" t="n">
-        <v>7.597388414361179e-11</v>
+        <v>0.0015818679863456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1096,28 +1134,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0001165720561071835</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.847795157599896e-05</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.001163819040461</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0003461973294988</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0001519017325245</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0015818679863456</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1126,7 +1156,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001163819040461</v>
+        <v>0.001728885613091632</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1138,7 +1168,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1147,14 +1177,26 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.001728885613091632</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.005377804786596121</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00129015709165994</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.847795195681034e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.537037472848137e-09</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0004791649292549341</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0001519017333333806</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.001581868062319484</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_SI.xlsx
+++ b/Outputs/PtX_demand_SI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -609,17 +609,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0006702424723200279</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>4.254209269224784e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,27 +632,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.003076450763477843</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.343667119656581e-06</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.001980603565556</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.721874768721148e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0009813852249140999</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -656,20 +650,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.001146085501813317</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.003076450763477843</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.343667119656581e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.820861712839786e-05</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.001980603565556</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.721874768721148e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0009813852249140999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -677,20 +681,30 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0001710761505851674</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.0310967063710098</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.467658727433266e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0006233899828972</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0126970711122363</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005884652842813</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0096127645369281</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -699,75 +713,73 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.001555883245481137</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.003297283447755199</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.343667119656581e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.492917080507675e-11</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.002044546595499908</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.721874768721148e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0009813852249140999</v>
-      </c>
+        <v>0.001146085501813317</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0008407390440067625</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0001710761505851674</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>2.086846941013904e-09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.967624283432319e-05</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.001555883245481137</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03506423229108502</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.102025439398923e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0006915986249547687</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01478415980042846</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0006856840319685115</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0105941497618422</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -776,17 +788,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0008407390440067625</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>2.086846941013904e-09</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.967624283432319e-05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -795,21 +813,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>3.009997692457285e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2.634244282946768e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -817,24 +831,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0009450240860476342</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.919770424781624e-05</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1.816853598663156e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -843,17 +851,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3.009997692457285e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.634244282946768e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -861,28 +873,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0009450240860476342</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.001289817512211268</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.034122395044084e-05</v>
-      </c>
+        <v>5.919770424781624e-05</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0013345459759956</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0001181049999963</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0011103608962393</v>
-      </c>
+        <v>1.816853598663156e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -890,20 +898,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.001033086309782776</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0003576098782463097</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>4.565330154468007e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -911,9 +921,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0006637443704830346</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -924,7 +932,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -932,20 +940,18 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.002641854766313445</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.002189754561465616</v>
+        <v>0.001289817512211268</v>
       </c>
       <c r="G21" t="n">
         <v>1.034122395044084e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.086846941013904e-09</v>
+        <v>8.303424373222285e-05</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001432390781158998</v>
+        <v>0.0013345459759956</v>
       </c>
       <c r="J21" t="n">
         <v>0.0001181049999963</v>
@@ -957,40 +963,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.001164232960626631</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.008290632842178699</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.802981521093037e-05</v>
+      </c>
       <c r="H22" t="n">
-        <v>3.537037472848137e-09</v>
+        <v>0.0005877402693978</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001279005782339543</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0057965788066297</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0005222102927215999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0093257754520696</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.001033086309782776</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1001,15 +1015,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0006637443704830346</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1020,30 +1036,40 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.002641854766313445</v>
+      </c>
       <c r="F25" t="n">
-        <v>2.227370036129704e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.01083799728189062</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.83710391613712e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0006707765999769638</v>
+      </c>
       <c r="I25" t="n">
-        <v>7.98862568146151e-10</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.007274622889333377</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0006403152927179</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0104361363483089</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1051,16 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.002485100133043488</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>9.349840352134126e-06</v>
+        <v>0.001164232960626631</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>3.537037472848137e-09</v>
+      </c>
       <c r="I26" t="n">
-        <v>5.066201414880919e-06</v>
+        <v>0.0001279005782339543</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1068,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1077,27 +1103,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>7.203956199715926e-12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.808113841955441e-13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>2.124473067637537e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>8.088805598649355e-13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.597388414361179e-11</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1106,27 +1122,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0001165720561071835</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.847795157599896e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0003461973294988</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0001519017325245</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0015818679863456</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1134,20 +1140,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.001163819040461</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2.227370036129704e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>7.98862568146151e-10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1156,19 +1164,23 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001728885613091632</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.002485100133043488</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.349840352134126e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>5.066201414880919e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1176,26 +1188,184 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1.915507313125229e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1.624687691858186e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>7.203956199715926e-12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.808113841955441e-13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.199083786398123e-12</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.124473067637537e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.088805598649355e-13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.597388414361179e-11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0001165720561071835</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.847795157599896e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0001087569693328</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0003461973294988</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0001519017325245</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0015818679863456</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0004604453049551258</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.332085924059987e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0005330047601981</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0010193311062008</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0004494929781736</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.008694192101945299</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.001163819040461</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.001728885613091632</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>0.005377804786596121</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.00129015709165994</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.847795195681034e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.537037472848137e-09</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0004791649292549341</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0001519017333333806</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.001581868062319484</v>
+      <c r="F37" t="n">
+        <v>0.001769757469746319</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.179881119741021e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0006417652697674566</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.001514742912374316</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0006013947115069806</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01027606016426478</v>
       </c>
     </row>
   </sheetData>
